--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Leap2-Ghsr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,46 +540,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.140392666666667</v>
+        <v>1.961729</v>
       </c>
       <c r="H2">
-        <v>3.421178</v>
+        <v>5.885187</v>
       </c>
       <c r="I2">
-        <v>0.184195006329927</v>
+        <v>0.2584331160119676</v>
       </c>
       <c r="J2">
-        <v>0.184195006329927</v>
+        <v>0.2584331160119676</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.671010333333333</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N2">
-        <v>5.013031</v>
+        <v>0.859405</v>
       </c>
       <c r="O2">
-        <v>0.8583235553312213</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="P2">
-        <v>0.8583235553312213</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="Q2">
-        <v>1.905607930057556</v>
+        <v>0.5619732370816667</v>
       </c>
       <c r="R2">
-        <v>17.150471370518</v>
+        <v>5.057759133735</v>
       </c>
       <c r="S2">
-        <v>0.1580989127073598</v>
+        <v>0.03078209739233029</v>
       </c>
       <c r="T2">
-        <v>0.1580989127073597</v>
+        <v>0.0307820973923303</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,46 +602,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.140392666666667</v>
+        <v>1.961729</v>
       </c>
       <c r="H3">
-        <v>3.421178</v>
+        <v>5.885187</v>
       </c>
       <c r="I3">
-        <v>0.184195006329927</v>
+        <v>0.2584331160119676</v>
       </c>
       <c r="J3">
-        <v>0.184195006329927</v>
+        <v>0.2584331160119676</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.07106366666666666</v>
+        <v>1.671010333333333</v>
       </c>
       <c r="N3">
-        <v>0.213191</v>
+        <v>5.013031</v>
       </c>
       <c r="O3">
-        <v>0.03650223928090977</v>
+        <v>0.6947883985330395</v>
       </c>
       <c r="P3">
-        <v>0.03650223928090977</v>
+        <v>0.6947883985330396</v>
       </c>
       <c r="Q3">
-        <v>0.08104048433311112</v>
+        <v>3.278069430199666</v>
       </c>
       <c r="R3">
-        <v>0.729364358998</v>
+        <v>29.502624871797</v>
       </c>
       <c r="S3">
-        <v>0.006723530195403686</v>
+        <v>0.1795563308018581</v>
       </c>
       <c r="T3">
-        <v>0.006723530195403685</v>
+        <v>0.1795563308018582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,51 +664,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.140392666666667</v>
+        <v>1.961729</v>
       </c>
       <c r="H4">
-        <v>3.421178</v>
+        <v>5.885187</v>
       </c>
       <c r="I4">
-        <v>0.184195006329927</v>
+        <v>0.2584331160119676</v>
       </c>
       <c r="J4">
-        <v>0.184195006329927</v>
+        <v>0.2584331160119676</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.2047563333333333</v>
+        <v>0.07779633333333334</v>
       </c>
       <c r="N4">
-        <v>0.614269</v>
+        <v>0.233389</v>
       </c>
       <c r="O4">
-        <v>0.1051742053878689</v>
+        <v>0.03234689144057309</v>
       </c>
       <c r="P4">
-        <v>0.1051742053878689</v>
+        <v>0.03234689144057309</v>
       </c>
       <c r="Q4">
-        <v>0.2335026209868889</v>
+        <v>0.1526153231936667</v>
       </c>
       <c r="R4">
-        <v>2.101523588882</v>
+        <v>1.373537908743</v>
       </c>
       <c r="S4">
-        <v>0.01937256342716356</v>
+        <v>0.008359507948288146</v>
       </c>
       <c r="T4">
-        <v>0.01937256342716356</v>
+        <v>0.008359507948288148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,25 +717,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.059500333333334</v>
+        <v>1.961729</v>
       </c>
       <c r="H5">
-        <v>6.178501000000001</v>
+        <v>5.885187</v>
       </c>
       <c r="I5">
-        <v>0.3326482956468387</v>
+        <v>0.2584331160119676</v>
       </c>
       <c r="J5">
-        <v>0.3326482956468387</v>
+        <v>0.2584331160119676</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.671010333333333</v>
+        <v>0.3697886666666667</v>
       </c>
       <c r="N5">
-        <v>5.013031</v>
+        <v>1.109366</v>
       </c>
       <c r="O5">
-        <v>0.8583235553312213</v>
+        <v>0.1537542110804829</v>
       </c>
       <c r="P5">
-        <v>0.8583235553312213</v>
+        <v>0.1537542110804829</v>
       </c>
       <c r="Q5">
-        <v>3.441446338503445</v>
+        <v>0.7254251512713334</v>
       </c>
       <c r="R5">
-        <v>30.973017046531</v>
+        <v>6.528826361442</v>
       </c>
       <c r="S5">
-        <v>0.2855198677944659</v>
+        <v>0.03973517986949097</v>
       </c>
       <c r="T5">
-        <v>0.2855198677944658</v>
+        <v>0.03973517986949099</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.059500333333334</v>
+        <v>2.059500333333333</v>
       </c>
       <c r="H6">
-        <v>6.178501000000001</v>
+        <v>6.178501</v>
       </c>
       <c r="I6">
-        <v>0.3326482956468387</v>
+        <v>0.2713132591560909</v>
       </c>
       <c r="J6">
-        <v>0.3326482956468387</v>
+        <v>0.271313259156091</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07106366666666666</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N6">
-        <v>0.213191</v>
+        <v>0.859405</v>
       </c>
       <c r="O6">
-        <v>0.03650223928090977</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="P6">
-        <v>0.03650223928090977</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="Q6">
-        <v>0.1463556451878889</v>
+        <v>0.5899816279894444</v>
       </c>
       <c r="R6">
-        <v>1.317200806691</v>
+        <v>5.309834651905</v>
       </c>
       <c r="S6">
-        <v>0.01214240768408772</v>
+        <v>0.0323162576687215</v>
       </c>
       <c r="T6">
-        <v>0.01214240768408772</v>
+        <v>0.03231625766872151</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,113 +850,113 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.059500333333334</v>
+        <v>2.059500333333333</v>
       </c>
       <c r="H7">
-        <v>6.178501000000001</v>
+        <v>6.178501</v>
       </c>
       <c r="I7">
-        <v>0.3326482956468387</v>
+        <v>0.2713132591560909</v>
       </c>
       <c r="J7">
-        <v>0.3326482956468387</v>
+        <v>0.271313259156091</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2047563333333333</v>
+        <v>1.671010333333333</v>
       </c>
       <c r="N7">
-        <v>0.614269</v>
+        <v>5.013031</v>
       </c>
       <c r="O7">
-        <v>0.1051742053878689</v>
+        <v>0.6947883985330395</v>
       </c>
       <c r="P7">
-        <v>0.1051742053878689</v>
+        <v>0.6947883985330396</v>
       </c>
       <c r="Q7">
-        <v>0.4216957367521111</v>
+        <v>3.441446338503444</v>
       </c>
       <c r="R7">
-        <v>3.795261630769</v>
+        <v>30.973017046531</v>
       </c>
       <c r="S7">
-        <v>0.03498602016828516</v>
+        <v>0.18850530482984</v>
       </c>
       <c r="T7">
-        <v>0.03498602016828516</v>
+        <v>0.18850530482984</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7057836666666667</v>
+        <v>2.059500333333333</v>
       </c>
       <c r="H8">
-        <v>2.117351</v>
+        <v>6.178501</v>
       </c>
       <c r="I8">
-        <v>0.1139974245267792</v>
+        <v>0.2713132591560909</v>
       </c>
       <c r="J8">
-        <v>0.1139974245267791</v>
+        <v>0.271313259156091</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.671010333333333</v>
+        <v>0.07779633333333334</v>
       </c>
       <c r="N8">
-        <v>5.013031</v>
+        <v>0.233389</v>
       </c>
       <c r="O8">
-        <v>0.8583235553312213</v>
+        <v>0.03234689144057309</v>
       </c>
       <c r="P8">
-        <v>0.8583235553312213</v>
+        <v>0.03234689144057309</v>
       </c>
       <c r="Q8">
-        <v>1.179371800097889</v>
+        <v>0.1602215744321111</v>
       </c>
       <c r="R8">
-        <v>10.614346200881</v>
+        <v>1.441994169889</v>
       </c>
       <c r="S8">
-        <v>0.09784667471842766</v>
+        <v>0.008776140540310147</v>
       </c>
       <c r="T8">
-        <v>0.09784667471842765</v>
+        <v>0.008776140540310149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7057836666666667</v>
+        <v>2.059500333333333</v>
       </c>
       <c r="H9">
-        <v>2.117351</v>
+        <v>6.178501</v>
       </c>
       <c r="I9">
-        <v>0.1139974245267792</v>
+        <v>0.2713132591560909</v>
       </c>
       <c r="J9">
-        <v>0.1139974245267791</v>
+        <v>0.271313259156091</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.07106366666666666</v>
+        <v>0.3697886666666667</v>
       </c>
       <c r="N9">
-        <v>0.213191</v>
+        <v>1.109366</v>
       </c>
       <c r="O9">
-        <v>0.03650223928090977</v>
+        <v>0.1537542110804829</v>
       </c>
       <c r="P9">
-        <v>0.03650223928090977</v>
+        <v>0.1537542110804829</v>
       </c>
       <c r="Q9">
-        <v>0.05015557522677778</v>
+        <v>0.761579882262889</v>
       </c>
       <c r="R9">
-        <v>0.4514001770410001</v>
+        <v>6.854218940366001</v>
       </c>
       <c r="S9">
-        <v>0.004161161267483946</v>
+        <v>0.04171555611721936</v>
       </c>
       <c r="T9">
-        <v>0.004161161267483945</v>
+        <v>0.04171555611721937</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7057836666666667</v>
+        <v>1.867501666666667</v>
       </c>
       <c r="H10">
-        <v>2.117351</v>
+        <v>5.602505</v>
       </c>
       <c r="I10">
-        <v>0.1139974245267792</v>
+        <v>0.2460198502821793</v>
       </c>
       <c r="J10">
-        <v>0.1139974245267791</v>
+        <v>0.2460198502821794</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2047563333333333</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N10">
-        <v>0.614269</v>
+        <v>0.859405</v>
       </c>
       <c r="O10">
-        <v>0.1051742053878689</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="P10">
-        <v>0.1051742053878689</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="Q10">
-        <v>0.1445136757132222</v>
+        <v>0.5349800899472222</v>
       </c>
       <c r="R10">
-        <v>1.300623081419</v>
+        <v>4.814820809525</v>
       </c>
       <c r="S10">
-        <v>0.01198958854086756</v>
+        <v>0.02930354711770712</v>
       </c>
       <c r="T10">
-        <v>0.01198958854086756</v>
+        <v>0.02930354711770712</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9874756666666666</v>
+        <v>1.867501666666667</v>
       </c>
       <c r="H11">
-        <v>2.962427</v>
+        <v>5.602505</v>
       </c>
       <c r="I11">
-        <v>0.1594960157048089</v>
+        <v>0.2460198502821793</v>
       </c>
       <c r="J11">
-        <v>0.1594960157048088</v>
+        <v>0.2460198502821794</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,27 +1122,27 @@
         <v>5.013031</v>
       </c>
       <c r="O11">
-        <v>0.8583235553312213</v>
+        <v>0.6947883985330395</v>
       </c>
       <c r="P11">
-        <v>0.8583235553312213</v>
+        <v>0.6947883985330396</v>
       </c>
       <c r="Q11">
-        <v>1.650082042915222</v>
+        <v>3.120614582517222</v>
       </c>
       <c r="R11">
-        <v>14.850738386237</v>
+        <v>28.085531242655</v>
       </c>
       <c r="S11">
-        <v>0.1368991872609158</v>
+        <v>0.1709317377848935</v>
       </c>
       <c r="T11">
-        <v>0.1368991872609158</v>
+        <v>0.1709317377848936</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9874756666666666</v>
+        <v>1.867501666666667</v>
       </c>
       <c r="H12">
-        <v>2.962427</v>
+        <v>5.602505</v>
       </c>
       <c r="I12">
-        <v>0.1594960157048089</v>
+        <v>0.2460198502821793</v>
       </c>
       <c r="J12">
-        <v>0.1594960157048088</v>
+        <v>0.2460198502821794</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,33 +1178,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.07106366666666666</v>
+        <v>0.07779633333333334</v>
       </c>
       <c r="N12">
-        <v>0.213191</v>
+        <v>0.233389</v>
       </c>
       <c r="O12">
-        <v>0.03650223928090977</v>
+        <v>0.03234689144057309</v>
       </c>
       <c r="P12">
-        <v>0.03650223928090977</v>
+        <v>0.03234689144057309</v>
       </c>
       <c r="Q12">
-        <v>0.07017364161744444</v>
+        <v>0.1452847821605556</v>
       </c>
       <c r="R12">
-        <v>0.6315627745569999</v>
+        <v>1.307563039445</v>
       </c>
       <c r="S12">
-        <v>0.005821961729608676</v>
+        <v>0.007957977389303702</v>
       </c>
       <c r="T12">
-        <v>0.005821961729608675</v>
+        <v>0.007957977389303702</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9874756666666666</v>
+        <v>1.867501666666667</v>
       </c>
       <c r="H13">
-        <v>2.962427</v>
+        <v>5.602505</v>
       </c>
       <c r="I13">
-        <v>0.1594960157048089</v>
+        <v>0.2460198502821793</v>
       </c>
       <c r="J13">
-        <v>0.1594960157048088</v>
+        <v>0.2460198502821794</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2047563333333333</v>
+        <v>0.3697886666666667</v>
       </c>
       <c r="N13">
-        <v>0.614269</v>
+        <v>1.109366</v>
       </c>
       <c r="O13">
-        <v>0.1051742053878689</v>
+        <v>0.1537542110804829</v>
       </c>
       <c r="P13">
-        <v>0.1051742053878689</v>
+        <v>0.1537542110804829</v>
       </c>
       <c r="Q13">
-        <v>0.2021918967625555</v>
+        <v>0.6905809513144445</v>
       </c>
       <c r="R13">
-        <v>1.819727070863</v>
+        <v>6.21522856183</v>
       </c>
       <c r="S13">
-        <v>0.01677486671428434</v>
+        <v>0.037826587990275</v>
       </c>
       <c r="T13">
-        <v>0.01677486671428433</v>
+        <v>0.037826587990275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1.298072333333333</v>
+        <v>0.8959480000000001</v>
       </c>
       <c r="H14">
-        <v>3.894216999999999</v>
+        <v>2.687844</v>
       </c>
       <c r="I14">
-        <v>0.2096632577916464</v>
+        <v>0.1180298774319441</v>
       </c>
       <c r="J14">
-        <v>0.2096632577916464</v>
+        <v>0.1180298774319441</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>1.671010333333333</v>
+        <v>0.2864683333333333</v>
       </c>
       <c r="N14">
-        <v>5.013031</v>
+        <v>0.859405</v>
       </c>
       <c r="O14">
-        <v>0.8583235553312213</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="P14">
-        <v>0.8583235553312213</v>
+        <v>0.1191104989459046</v>
       </c>
       <c r="Q14">
-        <v>2.16909228241411</v>
+        <v>0.2566607303133334</v>
       </c>
       <c r="R14">
-        <v>19.521830541727</v>
+        <v>2.30994657282</v>
       </c>
       <c r="S14">
-        <v>0.1799589128500523</v>
+        <v>0.01405859759144283</v>
       </c>
       <c r="T14">
-        <v>0.1799589128500523</v>
+        <v>0.01405859759144283</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,117 +1337,427 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.298072333333333</v>
+        <v>0.8959480000000001</v>
       </c>
       <c r="H15">
-        <v>3.894216999999999</v>
+        <v>2.687844</v>
       </c>
       <c r="I15">
-        <v>0.2096632577916464</v>
+        <v>0.1180298774319441</v>
       </c>
       <c r="J15">
-        <v>0.2096632577916464</v>
+        <v>0.1180298774319441</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.07106366666666666</v>
+        <v>1.671010333333333</v>
       </c>
       <c r="N15">
-        <v>0.213191</v>
+        <v>5.013031</v>
       </c>
       <c r="O15">
-        <v>0.03650223928090977</v>
+        <v>0.6947883985330395</v>
       </c>
       <c r="P15">
-        <v>0.03650223928090977</v>
+        <v>0.6947883985330396</v>
       </c>
       <c r="Q15">
-        <v>0.09224577960522219</v>
+        <v>1.497138366129333</v>
       </c>
       <c r="R15">
-        <v>0.8302120164469998</v>
+        <v>13.474245295164</v>
       </c>
       <c r="S15">
-        <v>0.007653178404325747</v>
+        <v>0.08200578951999141</v>
       </c>
       <c r="T15">
-        <v>0.007653178404325746</v>
+        <v>0.08200578951999142</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8959480000000001</v>
+      </c>
+      <c r="H16">
+        <v>2.687844</v>
+      </c>
+      <c r="I16">
+        <v>0.1180298774319441</v>
+      </c>
+      <c r="J16">
+        <v>0.1180298774319441</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.233389</v>
+      </c>
+      <c r="O16">
+        <v>0.03234689144057309</v>
+      </c>
+      <c r="P16">
+        <v>0.03234689144057309</v>
+      </c>
+      <c r="Q16">
+        <v>0.06970146925733335</v>
+      </c>
+      <c r="R16">
+        <v>0.627313223316</v>
+      </c>
+      <c r="S16">
+        <v>0.003817899632035245</v>
+      </c>
+      <c r="T16">
+        <v>0.003817899632035245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8959480000000001</v>
+      </c>
+      <c r="H17">
+        <v>2.687844</v>
+      </c>
+      <c r="I17">
+        <v>0.1180298774319441</v>
+      </c>
+      <c r="J17">
+        <v>0.1180298774319441</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.3697886666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.109366</v>
+      </c>
+      <c r="O17">
+        <v>0.1537542110804829</v>
+      </c>
+      <c r="P17">
+        <v>0.1537542110804829</v>
+      </c>
+      <c r="Q17">
+        <v>0.3313114163226668</v>
+      </c>
+      <c r="R17">
+        <v>2.981802746904</v>
+      </c>
+      <c r="S17">
+        <v>0.01814759068847466</v>
+      </c>
+      <c r="T17">
+        <v>0.01814759068847466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.8061786666666667</v>
+      </c>
+      <c r="H18">
+        <v>2.418536</v>
+      </c>
+      <c r="I18">
+        <v>0.106203897117818</v>
+      </c>
+      <c r="J18">
+        <v>0.106203897117818</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.2864683333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.859405</v>
+      </c>
+      <c r="O18">
+        <v>0.1191104989459046</v>
+      </c>
+      <c r="P18">
+        <v>0.1191104989459046</v>
+      </c>
+      <c r="Q18">
+        <v>0.2309446590088889</v>
+      </c>
+      <c r="R18">
+        <v>2.07850193108</v>
+      </c>
+      <c r="S18">
+        <v>0.01264999917570282</v>
+      </c>
+      <c r="T18">
+        <v>0.01264999917570282</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.8061786666666667</v>
+      </c>
+      <c r="H19">
+        <v>2.418536</v>
+      </c>
+      <c r="I19">
+        <v>0.106203897117818</v>
+      </c>
+      <c r="J19">
+        <v>0.106203897117818</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.671010333333333</v>
+      </c>
+      <c r="N19">
+        <v>5.013031</v>
+      </c>
+      <c r="O19">
+        <v>0.6947883985330395</v>
+      </c>
+      <c r="P19">
+        <v>0.6947883985330396</v>
+      </c>
+      <c r="Q19">
+        <v>1.347132882512889</v>
+      </c>
+      <c r="R19">
+        <v>12.124195942616</v>
+      </c>
+      <c r="S19">
+        <v>0.07378923559645646</v>
+      </c>
+      <c r="T19">
+        <v>0.07378923559645648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.8061786666666667</v>
+      </c>
+      <c r="H20">
+        <v>2.418536</v>
+      </c>
+      <c r="I20">
+        <v>0.106203897117818</v>
+      </c>
+      <c r="J20">
+        <v>0.106203897117818</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.07779633333333334</v>
+      </c>
+      <c r="N20">
+        <v>0.233389</v>
+      </c>
+      <c r="O20">
+        <v>0.03234689144057309</v>
+      </c>
+      <c r="P20">
+        <v>0.03234689144057309</v>
+      </c>
+      <c r="Q20">
+        <v>0.06271774427822223</v>
+      </c>
+      <c r="R20">
+        <v>0.564459698504</v>
+      </c>
+      <c r="S20">
+        <v>0.003435365930635853</v>
+      </c>
+      <c r="T20">
+        <v>0.003435365930635853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>23</v>
       </c>
-      <c r="E16">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="F21">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G16">
-        <v>1.298072333333333</v>
-      </c>
-      <c r="H16">
-        <v>3.894216999999999</v>
-      </c>
-      <c r="I16">
-        <v>0.2096632577916464</v>
-      </c>
-      <c r="J16">
-        <v>0.2096632577916464</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M16">
-        <v>0.2047563333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.614269</v>
-      </c>
-      <c r="O16">
-        <v>0.1051742053878689</v>
-      </c>
-      <c r="P16">
-        <v>0.1051742053878689</v>
-      </c>
-      <c r="Q16">
-        <v>0.2657885313747777</v>
-      </c>
-      <c r="R16">
-        <v>2.392096782372999</v>
-      </c>
-      <c r="S16">
-        <v>0.02205116653726832</v>
-      </c>
-      <c r="T16">
-        <v>0.02205116653726832</v>
+      <c r="G21">
+        <v>0.8061786666666667</v>
+      </c>
+      <c r="H21">
+        <v>2.418536</v>
+      </c>
+      <c r="I21">
+        <v>0.106203897117818</v>
+      </c>
+      <c r="J21">
+        <v>0.106203897117818</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3697886666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.109366</v>
+      </c>
+      <c r="O21">
+        <v>0.1537542110804829</v>
+      </c>
+      <c r="P21">
+        <v>0.1537542110804829</v>
+      </c>
+      <c r="Q21">
+        <v>0.2981157342417778</v>
+      </c>
+      <c r="R21">
+        <v>2.683041608176</v>
+      </c>
+      <c r="S21">
+        <v>0.01632929641502288</v>
+      </c>
+      <c r="T21">
+        <v>0.01632929641502288</v>
       </c>
     </row>
   </sheetData>
